--- a/NformTester/NformTester/Keywordscripts/600.20.10.40_VerifyFormatOfEamilAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.10.40_VerifyFormatOfEamilAction.xlsx
@@ -1360,7 +1360,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8243" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8245" uniqueCount="934">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4179,6 +4179,18 @@
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormE_mail_Action_Properties</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4351,7 +4363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4398,6 +4410,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4421,74 +4437,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4500,7 +4448,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4780,7 +4728,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5220,7 +5168,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="39.75" customHeight="1">
+    <row r="15" spans="1:14" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>915</v>
       </c>
@@ -5232,7 +5180,7 @@
         <v>926</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>438</v>
+        <v>932</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>440</v>
@@ -5241,7 +5189,7 @@
         <v>57</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -5295,8 +5243,12 @@
       <c r="B22" s="15"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="16"/>
